--- a/ResultadoEleicoesDistritos/R. A. MADEIRA_FUNCHAL.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. MADEIRA_FUNCHAL.xlsx
@@ -597,64 +597,64 @@
         <v>31479</v>
       </c>
       <c r="H2" t="n">
-        <v>1187</v>
+        <v>1204</v>
       </c>
       <c r="I2" t="n">
-        <v>3071</v>
+        <v>3195</v>
       </c>
       <c r="J2" t="n">
-        <v>12893</v>
+        <v>12914</v>
       </c>
       <c r="K2" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L2" t="n">
-        <v>3513</v>
+        <v>3534</v>
       </c>
       <c r="M2" t="n">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="N2" t="n">
-        <v>2290</v>
+        <v>2143</v>
       </c>
       <c r="O2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P2" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="R2" t="n">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="S2" t="n">
-        <v>1428</v>
+        <v>1403</v>
       </c>
       <c r="T2" t="n">
-        <v>2247</v>
+        <v>2296</v>
       </c>
       <c r="U2" t="n">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="V2" t="n">
-        <v>20032</v>
+        <v>20165</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>20351</v>
+        <v>20185</v>
       </c>
       <c r="Y2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z2" t="n">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="AA2" t="n">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
